--- a/data/evaluation/evaluation_Center_Autumn_Peppers.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2091.209812475267</v>
+        <v>2142.757017633644</v>
       </c>
       <c r="C4" t="n">
-        <v>7607165.770310349</v>
+        <v>7681065.657177207</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.109093257616</v>
+        <v>2771.473553396678</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1583489151625681</v>
+        <v>0.1501726874019474</v>
       </c>
     </row>
     <row r="5">
